--- a/all_news.xlsx
+++ b/all_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4744,83 +4744,265 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>Ben Berkowitz</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>"This is a revolution," Musk says of DOGE's government overhaul - Axios</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Axios</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.axios.com/2025/03/27/musk-doge-revolution</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Until now, DOGE has mostly been a shadowy operation.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2025-03-28T04:41:07Z</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Elon Musk described the Department of Government Efficiency's work as a "revolution" in his team's first interview on the department's behalf Thursday.
+Why it matters: DOGE has forced out tens of th… [+2603 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>UBISOFT ENTERTAINMENT</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ubisoft announces the creation of a new subsidiary - GlobeNewswire</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>GlobeNewswire</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.globenewswire.com/news-release/2025/03/27/3050885/0/en/Ubisoft-announces-the-creation-of-a-new-subsidiary.html</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>UBISOFT ACCELERATES ITS TRANSFORMATION BY LAYING FOUNDATION FOR NEW OPERATING MODEL WITH THE CREATION OF A SUBSIDIARY AND INJECTION OF €1.16BN OF CASH...</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2025-03-27T17:11:06Z</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>UBISOFT ACCELERATES ITS TRANSFORMATION BY LAYING FOUNDATION FOR NEW OPERATING MODEL WITH THE CREATION OF A SUBSIDIARY AND INJECTION OF 1.16BN OF CASH FROM SELECTED INVESTOR TENCENT
+PARIS March 27, 2… [+10835 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Hannah Hoolihan</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>17 Best Deals Under $25 From Amazon’s Big Spring Sale - IGN</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>IGN</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.ign.com/articles/best-deals-under-25-amazon-big-spring-sale</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Here are some of the best deals under $25 from Amazon's Big Spring Sale, including the latest Hunger Games novel Sunrise on the Reaping and the Metal Gear Solid: Master Collection Vol.1.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2025-03-27T16:36:03Z</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>No matter if you're looking to save on tech or want to stock up on some books or comics, Amazon's Big Spring Sale has already had plenty to offer shoppers. If you're not looking to spend a ton of cas… [+2221 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Barron's</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Small Businesses Are Stalling, New Report Shows. It Could Be a Warning for the Economy. - Barron's</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Barron's</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.barrons.com/articles/economy-small-businesses-warning-bdc6fadc</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>Lee Ying Shan</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Japan stocks lead losses in region as Trump tariff threats keep investors on edge - CNBC</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>CNBC</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.cnbc.com/2025/03/28/asia-pacific-markets-live-australia-elections-auto-stocks.html</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Australia's Prime Minister Anthony Albanese announced a national election for May 3, kicking off a five-week campaign.</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>2025-03-28T06:09:00Z</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>Asia-Pacific markets mostly fell on Friday as U.S. President Donald Trump's tariff threats kept investors on edge.
 Japan's Nikkei 225lost 2.09%, sinking to its lowest in two weeks, data from FactSet… [+1446 chars]</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>business</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Nian Liu, Joe Leahy</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>China’s Xi Jinping meets foreign CEOs to urge trade stability - Financial Times</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Financial Times</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://www.ft.com/content/63c1ca09-9505-4086-9bbe-1b3642838605</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>Exhortation to ‘not blindly follow’ disruptive actions comes amid rising tensions with US</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>2025-03-28T05:12:07Z</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>Markets Insights
 Access expert analysis on global markets and economic trends.
@@ -4829,191 +5011,6 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>business</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Ben Berkowitz</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>"This is a revolution," Musk says of DOGE's government overhaul - Axios</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Axios</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>https://www.axios.com/2025/03/27/musk-doge-revolution</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Until now, DOGE has mostly been a shadowy operation.</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2025-03-28T04:41:07Z</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Elon Musk described the Department of Government Efficiency's work as a "revolution" in his team's first interview on the department's behalf Thursday.
-Why it matters: DOGE has forced out tens of th… [+2603 chars]</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>business</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Josh Boak</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Noted economist honored by Trump warns that 25% tariffs risk 'irreparable damage' to US automakers - The Associated Press</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Associated Press</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>https://apnews.com/article/trump-art-laffer-auto-tariff-warning-ba62f55af070e40e9d6eddf5d8433ad1</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Noted economist Arthur Laffer warns in a new analysis that President Donald Trump’s 25% tariffs on auto imports could add $4,711 to the cost of a vehicle. Laffer says the proposed taxes could weaken the ability of U.S. automakers to compete with their foreign…</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2025-03-28T03:17:00Z</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>WASHINGTON (AP) Noted economist Arthur Laffer warns in a new analysis that President Donald Trumps 25% tariffs on auto imports could add $4,711 to the cost of a vehicle, adding that the proposed taxe… [+3857 chars]</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>business</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Nisha Gopalan</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Nvidia-Backed CoreWeave Prices Its IPO at $40 Per Share, Below Expectations - Investopedia</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Investopedia</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>https://www.investopedia.com/nvidia-backed-coreweave-prices-its-ipo-at-usd40-per-share-below-expectations-11701963</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>CoreWeave, a cloud computing company backed by Nvidia, priced its initial public offering at $40 per share Thursday, below its previously expected range.</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2025-03-28T02:00:05Z</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>&lt;ul&gt;&lt;li&gt;CoreWeave, a cloud computing company backed by Nvidia, priced its initial public offering at $40 per share Thursday, below its previously expected range.&lt;/li&gt;&lt;li&gt;It was founded as recently as… [+2439 chars]</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>business</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Dow Jones Futures: Trump Tariff Losses Continue; Nvidia-Backed CoreWeave IPO A Bad Sign For AI Stocks - Investor's Business Daily</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Investor's Business Daily</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>https://www.investors.com/market-trend/stock-market-today/dow-jones-futures-trump-tariff-losses-tesla-nvidia-coreweave-ipo/</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Tesla tried to rally, but hit resistance. Two e-commerce giants made bullish moves.</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2025-03-28T00:45:33Z</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Information in Investors Business Daily is for informational and educational purposes only and should not be construed as an offer, recommendation, solicitation, or rating to buy or sell securities. … [+1064 chars]</t>
-        </is>
-      </c>
-    </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
@@ -5027,398 +5024,773 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>Filip Timotija</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>DOGE team defends federal layoffs: ‘Almost no one has gotten fired’ - The Hill</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>The Hill</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://thehill.com/homenews/administration/5219061-doge-team-defends-federal-layoffs-almost-no-one-has-gotten-fired/</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>President Trump’s senior adviser and tech billionaire Elon Musk, along with seven Department of Government Efficiency (DOGE) staffers, defended the number of federal government employees the advisory board has moved to terminate in recent months, arguing that…</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2025-03-28T04:16:00Z</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Skip to content
+President Trump’s senior adviser and tech billionaire Elon Musk, along with seven Department of Government Efficiency (DOGE) staffers, defended the number of federal government emplo… [+2681 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Josh Boak</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Noted economist honored by Trump warns that 25% tariffs risk 'irreparable damage' to US automakers - The Associated Press</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Associated Press</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://apnews.com/article/trump-art-laffer-auto-tariff-warning-ba62f55af070e40e9d6eddf5d8433ad1</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Noted economist Arthur Laffer warns in a new analysis that President Donald Trump’s 25% tariffs on auto imports could add $4,711 to the cost of a vehicle. Laffer says the proposed taxes could weaken the ability of U.S. automakers to compete with their foreign…</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2025-03-28T03:17:00Z</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>WASHINGTON (AP) Noted economist Arthur Laffer warns in a new analysis that President Donald Trumps 25% tariffs on auto imports could add $4,711 to the cost of a vehicle, adding that the proposed taxe… [+3857 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Nisha Gopalan</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Nvidia-Backed CoreWeave Prices Its IPO at $40 Per Share, Below Expectations - Investopedia</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Investopedia</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.investopedia.com/nvidia-backed-coreweave-prices-its-ipo-at-usd40-per-share-below-expectations-11701963</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>CoreWeave, a cloud computing company backed by Nvidia, priced its initial public offering at $40 per share Thursday, below its previously expected range.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2025-03-28T02:00:05Z</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;&lt;li&gt;CoreWeave, a cloud computing company backed by Nvidia, priced its initial public offering at $40 per share Thursday, below its previously expected range.&lt;/li&gt;&lt;li&gt;It was founded as recently as… [+2439 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Dow Jones Futures: Trump Tariff Losses Continue; Nvidia-Backed CoreWeave IPO A Bad Sign For AI Stocks - Investor's Business Daily</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Investor's Business Daily</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.investors.com/market-trend/stock-market-today/dow-jones-futures-trump-tariff-losses-tesla-nvidia-coreweave-ipo/</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Tesla tried to rally, but hit resistance. Two e-commerce giants made bullish moves.</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2025-03-28T00:45:33Z</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Information in Investors Business Daily is for informational and educational purposes only and should not be construed as an offer, recommendation, solicitation, or rating to buy or sell securities. … [+1064 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Rio Yamat</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Man accused of setting fire to Tesla vehicles in Las Vegas arrested, police say - The Associated Press</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Associated Press</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://apnews.com/article/las-vegas-tesla-fire-arson-elon-musk-531cb1ff3d53eee058accd0e37ad4b22</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Las Vegas police on Thursday said they arrested a man who allegedly set fire to Tesla vehicles in Las Vegas on March 18. Police say Paul Hyon Kim spray-painted the word “resist” in red on the doors of a Tesla service center, then threw Molotov cocktails and f…</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2025-03-28T00:19:00Z</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>LAS VEGAS (AP) A man who set fire to Tesla vehicles in Las Vegas and who painted the word resist for authorities to find at the scene has been arrested.
+Paul Hyon Kim, 36, faces charges in connectio… [+2895 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rohan Goswami</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Nippon, US Steel offer increased investment to Trump officials to close deal - Semafor</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Semafor.com</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.semafor.com/article/03/27/2025/us-steel-and-nippon-are-in-talks-to-revive-merger-that-trump-had-threaten-to-block</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Under a deal being discussed with administration officials, Nippon would invest billions into US steelmaking facilities and be allowed to complete its $14 billion takeover of US Steel.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2025-03-27T23:31:00Z</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Nippon Steel and US Steel are in talks with the Trump administration to salvage their $14 billion merger by offering billions more in investments from the Japanese steelmaker into outdated Rust Belt … [+1491 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>Gregory Meyer</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Yoga pants maker Lululemon says US consumers are cutting back on spending - Financial Times</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Financial Times</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.ft.com/content/960c8515-1493-482b-8206-1fd8023f312b</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>Athleisure group’s shares sink as it warns on darkening sentiment among American customers</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>2025-03-27T23:06:23Z</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>Complete digital access to quality analysis and expert insights, complemented with our award-winning Weekend Print edition.
 &lt;ul&gt;&lt;li&gt;&lt;/li&gt;Everything in Print&lt;li&gt;&lt;/li&gt;Weekday Print Edition&lt;li&gt;&lt;/li&gt;FT … [+202 chars]</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>business</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Peter Johnson</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Hyundai IONIQ 9 officially enters production as its new Georgia EV plant opens - Electrek.co</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Electrek</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://electrek.co/2025/03/27/hyundai-ioniq-9-enters-production-georgia-ev-plant-opens/</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Hyundai’s first three-row electric SUV, the IONIQ 9, has officially entered production at its massive new EV plant in Georgia....</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>2025-03-27T22:13:00Z</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>Hyundai’s first three-row electric SUV, the IONIQ 9, has officially entered production at its massive new EV plant in Georgia. The company held the grand opening on Wednesday at its massive new Hyund… [+3325 chars]</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>business</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Gordon Gottsegen</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>As Trump’s tariff ‘Liberation Day’ nears, investors are loading up on options and these stocks - MarketWatch</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>MarketWatch</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.marketwatch.com/story/as-trumps-tariff-liberation-day-nears-investors-are-loading-up-on-options-and-these-stocks-7ec03b85</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>‘They’re either about to be proven spectacularly right… or spectacularly wrong’</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>2025-03-27T19:49:00Z</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>Tariff news has led to a volatile stock market over the past few months, but retail investors have been happy to use that as an excuse to buy the dip. And as President Donald Trumps 
 April 2 tariff … [+197 chars]</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>business</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Declan Harty</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>‘Breathtaking': Warren presses Trump’s SEC pick over potential conflicts - POLITICO</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Politico</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.politico.com/live-updates/2025/03/27/congress/warren-atkins-hearing-wall-street-consultancy-00253836</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>The Massachusetts Democrat's attack underscores the left's concerns about how Atkins will lead the top Wall Street regulator as chair.</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2025-03-27T19:28:32Z</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Bethany Braun-Silva</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Amazon Big Spring Sale 2025: Deals for your patio and outdoor spaces - Good Morning America</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>GMA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.goodmorningamerica.com/shop/story/amazon-big-spring-sale-2025-deals-patio-outdoor-120210580</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Shop deals for your outdoor spaces during Amazon's Big Spring Sale.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2025-03-27T19:04:05Z</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>Ryan Bort</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Republicans Vote to Let Banks Screw Over Working Americans - Rolling Stone</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>Rolling Stone</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.rollingstone.com/politics/politics-news/republicans-vote-repeal-cap-bank-overdraft-fees-1235304880/</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>Senate Republicans voted 52-48 to advance a repeal of a Consumer Financial Protection Bureau rule capping bank and credit union overdraft fees at $5.</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>2025-03-27T18:45:21Z</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>The Consumer Financial Protection Bureau (CFPB) instituted a $5 cap on overdraft fees under President Joe Biden. Thankfully for major banking institutions — and unfortunately for working Americans — … [+2551 chars]</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>business</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ana Altchek</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Columbia suspends student who created AI tool that helps people cheat in coding interviews - Business Insider</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Business Insider</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.businessinsider.com/columbia-suspends-student-ai-interview-coder-cheat-tool-chungin-lee-2025-3</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Documents obtained by BI show Chungin "Roy" Lee was suspended for failing to comply with Columbia University policies around disciplinary hearings.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2025-03-27T18:20:00Z</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Columbia University suspended a student who created an AI tool that helps job candidates cheat on technical interviews, according to disciplinary documents obtained by Business Insider.
+However, it … [+2895 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Ryan Browne</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Ubisoft spins out new unit for Assassin’s Creed and other games, Tencent to take $1.25 billion stake - CNBC</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>CNBC</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.cnbc.com/2025/03/27/ubisoft-spins-out-new-gaming-subsidiary-tencent-to-take-stake.html</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Ubisoft on Thursday announced it's creating a new gaming subsidiary and that Chinese technology giant Tencent will invest 1.16 billion euros ($1.25 billion) into the unit.</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2025-03-27T17:46:02Z</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Ubisoft on Thursday announced that it's creating a new gaming subsidiary with Chinese technology giant Tencent investing 1.16 billion euros ($1.25 billion) into the unit.
+The subsidiary will focus o… [+1944 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>Catherine McGrath</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>GameStop stock slides 23% after announcing strategy shift and plans to buy $1.3 billion worth of Bitcoin - Fortune</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Fortune</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://fortune.com/crypto/2025/03/27/gamestop-stock-slides-after-strategy-shift-bitcoin-closing-stores/</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>GameStop plans to buy $1.3 billion worth of Bitcoin through debt and equity financing.</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>2025-03-27T17:31:00Z</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>business</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>UBISOFT ENTERTAINMENT</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Ubisoft announces the creation of a new subsidiary - GlobeNewswire</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>GlobeNewswire</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>https://www.globenewswire.com/news-release/2025/03/27/3050885/0/en/Ubisoft-announces-the-creation-of-a-new-subsidiary.html</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>UBISOFT ACCELERATES ITS TRANSFORMATION BY LAYING FOUNDATION FOR NEW OPERATING MODEL WITH THE CREATION OF A SUBSIDIARY AND INJECTION OF €1.16BN OF CASH...</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2025-03-27T17:11:06Z</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>UBISOFT ACCELERATES ITS TRANSFORMATION BY LAYING FOUNDATION FOR NEW OPERATING MODEL WITH THE CREATION OF A SUBSIDIARY AND INJECTION OF 1.16BN OF CASH FROM SELECTED INVESTOR TENCENT
-PARIS March 27, 2… [+10835 chars]</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Barron's</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Texas Oil Survey Shows Frustration With Trump. ‘Chaos Is a Disaster.’ - Barron's</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Barron's</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.barrons.com/articles/texas-oil-survey-frustration-tariffs-1c16e994</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2025-03-27T16:37:00Z</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>business</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Barron's</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Texas Oil Survey Shows Frustration With Trump. ‘Chaos Is a Disaster.’ - Barron's</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Barron's</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>https://www.barrons.com/articles/texas-oil-survey-frustration-tariffs-1c16e994</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2025-03-27T16:37:00Z</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>business</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Hannah Hoolihan</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>17 Best Deals Under $25 From Amazon’s Big Spring Sale - IGN</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>IGN</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>https://www.ign.com/articles/best-deals-under-25-amazon-big-spring-sale</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Here are some of the best deals under $25 from Amazon's Big Spring Sale, including the latest Hunger Games novel Sunrise on the Reaping and the Metal Gear Solid: Master Collection Vol.1.</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2025-03-27T16:36:03Z</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>No matter if you're looking to save on tech or want to stock up on some books or comics, Amazon's Big Spring Sale has already had plenty to offer shoppers. If you're not looking to spend a ton of cas… [+2221 chars]</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>business</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Barron's</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Small Businesses Are Stalling, New Report Shows. It Could Be a Warning for the Economy. - Barron's</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Barron's</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>https://www.barrons.com/articles/economy-small-businesses-warning-bdc6fadc</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2025-03-27T13:30:00Z</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Steven Church</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Bankrupt 23andMe’s DNA Data Gets Sale Nod as Concerns Linger - Bloomberg</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Bloomberg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.bloomberg.com/news/articles/2025-03-26/bankrupt-23andme-s-dna-data-gets-nod-for-sale-as-concerns-linger</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Bankrupt genetic testing firm 23andMe Holding Co. won permission from a judge to try to sell information about customers’ medical and ancestry-related data, a trove that is considered the most valuable asset in the insolvency case — and has become a source of…</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:02:32Z</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Bankrupt genetic testing firm 23andMe Holding Co. won permission from a judge to try to sell information about customers medical and ancestry-related data, a trove that is considered the most valuabl… [+471 chars]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
